--- a/Framework/Directory/TestDataDB.xlsx
+++ b/Framework/Directory/TestDataDB.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="80">
   <si>
     <t>Application_Details</t>
   </si>
@@ -247,22 +247,25 @@
     <t>welcome1</t>
   </si>
   <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>Firefox</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>IDP</t>
+  </si>
+  <si>
+    <t>Individualcustomer</t>
+  </si>
+  <si>
+    <t>MSISDN--4534||SIM--2345||PlanName--Prepaid Freedom Monthly Limit Promotion||</t>
+  </si>
+  <si>
     <t>YES</t>
-  </si>
-  <si>
-    <t>IDP</t>
-  </si>
-  <si>
-    <t>Individualcustomer</t>
-  </si>
-  <si>
-    <t>MSISDN--974324314||SIM--32141234324||PlanName--Prepaid Red Promotion||</t>
-  </si>
-  <si>
-    <t>MSISDN--974324314||SIM--32141234324||PlanName--Postpaid Red 250 Promotion||</t>
-  </si>
-  <si>
-    <t>SmartLimit--Yes||RTB_Validation--Yes||</t>
   </si>
 </sst>
 </file>
@@ -690,7 +693,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,7 +757,7 @@
         <v>64</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -774,7 +777,7 @@
         <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -816,11 +819,11 @@
     <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="77.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="78.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -854,19 +857,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -874,21 +877,18 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H3" t="s">
         <v>78</v>
       </c>
     </row>
